--- a/medicine/Pharmacie/Lydia_Pinkham/Lydia_Pinkham.xlsx
+++ b/medicine/Pharmacie/Lydia_Pinkham/Lydia_Pinkham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lydia Estes Pinkham, née le 9 février 1819 à Lynn dans le Massachusetts, et morte le 17 mai 1883 dans la même ville, est une herboriste américaine.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lydia Pinkham naît le 9 février 1819 à Lynn dans le Massachusett[1].
-Elle est sans doute l'une des premières femmes au monde à créer, en 1876, sa propre marque de produits grand public[2].
-Elle meurt le 17 mai 1883 dans sa ville natale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lydia Pinkham naît le 9 février 1819 à Lynn dans le Massachusett.
+Elle est sans doute l'une des premières femmes au monde à créer, en 1876, sa propre marque de produits grand public.
+Elle meurt le 17 mai 1883 dans sa ville natale.
 </t>
         </is>
       </c>
